--- a/แบบทดสอบยา_herbRelieve.xlsx
+++ b/แบบทดสอบยา_herbRelieve.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/day/Desktop/coding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/day/Desktop/coding 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA5F8C5-6F98-7A46-892C-B93886A622EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B7688C-41AE-C840-8CE8-BE1773E32646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{1080B15A-826C-354A-B8B1-A71E6BBB4737}"/>
+    <workbookView xWindow="4360" yWindow="700" windowWidth="28800" windowHeight="16320" xr2:uid="{1080B15A-826C-354A-B8B1-A71E6BBB4737}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>ที่</t>
   </si>
@@ -59,6 +59,38 @@
   </si>
   <si>
     <t>ข้อคิดเห็น</t>
+  </si>
+  <si>
+    <t>บรรจุภัณฑ์ของยา และปริมาณของยา
+สามารถพัฒนาขึ้นได้อีก</t>
+  </si>
+  <si>
+    <t>อยากให้เป็นสีใส่</t>
+  </si>
+  <si>
+    <t>ควรใช้บรรจุภัณฑ์ที่เกร๊กว่านี้
+รสชาติอร่อยมาก สามารถต่อยอดได้อีกเยอะ</t>
+  </si>
+  <si>
+    <t>ตัวยาใช้เวลาในการละลายนานไปหน่อย</t>
+  </si>
+  <si>
+    <t>ตัวยาควรมีรสชาตินิดหนึ่ง</t>
+  </si>
+  <si>
+    <t>รสชาติอยู่ในระดับที่ปานกลาง แต่สีดูไม่เป็นมิตรเท่าไหร่ กับกระเพาะเลย แต่โดยรวมแล้วโอเค</t>
+  </si>
+  <si>
+    <t>อยากให้พัฒนารสชาติของตัวยา</t>
+  </si>
+  <si>
+    <t>อยากให้ปรับปรุงรสชาติของเม็ดฟู่ ให้อร่อยอีกนิด ตัวเม็ดดีแล้ว ฟู่เต็มที่ พัฒนาต่อไป ขอให้ประสบความสำเร็จ</t>
+  </si>
+  <si>
+    <t>อยากให้มีรสชาติที่ดียิ่งขึ้นและอยากให้ต่อยอดไปอีก</t>
+  </si>
+  <si>
+    <t>เวลาชงแล้ว ยังมีกากส่วนผสมหลงเหลืออยู่ในน้ำ ควรลดให้ละเอียดกว่านี้</t>
   </si>
 </sst>
 </file>
@@ -94,10 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,7 +451,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,7 +460,7 @@
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="5" max="5" width="19.1640625" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="43.5" customWidth="1"/>
+    <col min="7" max="7" width="87" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -470,6 +505,9 @@
       <c r="F2">
         <v>3</v>
       </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -490,6 +528,9 @@
       <c r="F3">
         <v>2</v>
       </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -510,6 +551,9 @@
       <c r="F4">
         <v>3</v>
       </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -530,8 +574,11 @@
       <c r="F5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -550,6 +597,9 @@
       <c r="F6">
         <v>4</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -569,6 +619,9 @@
       </c>
       <c r="F7">
         <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -590,8 +643,11 @@
       <c r="F8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -610,8 +666,11 @@
       <c r="F9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -630,8 +689,11 @@
       <c r="F10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -649,6 +711,9 @@
       </c>
       <c r="F11">
         <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
